--- a/Antidepressant/Status_of_Not_found_Antidepressant.xlsx
+++ b/Antidepressant/Status_of_Not_found_Antidepressant.xlsx
@@ -14,80 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>rxcui</t>
   </si>
   <si>
-    <t>drugs_not_found_name</t>
-  </si>
-  <si>
-    <t>drugs_not_found_tty</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>TTY</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>releaseStartDate</t>
-  </si>
-  <si>
-    <t>releaseEndDate</t>
-  </si>
-  <si>
-    <t>isCurrent</t>
-  </si>
-  <si>
-    <t>activeStartDate</t>
-  </si>
-  <si>
-    <t>activeEndDate</t>
-  </si>
-  <si>
-    <t>remappedDate</t>
-  </si>
-  <si>
-    <t>197889</t>
-  </si>
-  <si>
-    <t>197890</t>
-  </si>
-  <si>
-    <t>197891</t>
-  </si>
-  <si>
-    <t>197892</t>
-  </si>
-  <si>
-    <t>197893</t>
-  </si>
-  <si>
-    <t>199324</t>
-  </si>
-  <si>
-    <t>311355</t>
-  </si>
-  <si>
-    <t>608328</t>
-  </si>
-  <si>
-    <t>636664</t>
-  </si>
-  <si>
-    <t>746073</t>
-  </si>
-  <si>
-    <t>749153</t>
-  </si>
-  <si>
-    <t>756059</t>
-  </si>
-  <si>
-    <t>846386</t>
-  </si>
-  <si>
     <t>lithium carbonate 300 MG Oral Capsule</t>
   </si>
   <si>
@@ -131,33 +71,6 @@
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>RXNORM</t>
-  </si>
-  <si>
-    <t>042005</t>
-  </si>
-  <si>
-    <t>022006</t>
-  </si>
-  <si>
-    <t>072006</t>
-  </si>
-  <si>
-    <t>012008</t>
-  </si>
-  <si>
-    <t>032008</t>
-  </si>
-  <si>
-    <t>052009</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>052006</t>
   </si>
 </sst>
 </file>
@@ -515,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,364 +447,187 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>197889</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>197890</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>197891</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>197892</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>197893</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>199324</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>311355</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>608328</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>636664</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>746073</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>749153</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>756059</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>846386</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
